--- a/doc/中间文档/uvision.xlsx
+++ b/doc/中间文档/uvision.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\libqm\school\TEnd\中间文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DaDoeiamiSys\doc\中间文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73A34FF-F875-4E79-B7F3-82C90CA69E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B21558-7BCE-4713-86B5-7F86CCE39114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="开题报告结构图-第二版" sheetId="4" r:id="rId3"/>
     <sheet name="巡检设备分类" sheetId="5" r:id="rId4"/>
     <sheet name="数据分析思路" sheetId="6" r:id="rId5"/>
-    <sheet name="-" sheetId="2" r:id="rId6"/>
+    <sheet name="Info" sheetId="7" r:id="rId6"/>
+    <sheet name="-" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -291,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>巡检分析管理系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +413,78 @@
     <t>编写多线程程序实时获取刷新（告警）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>高温锅炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输煤皮带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压管道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变压器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QJXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSQL对应表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boiler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pipeline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transformer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +494,7 @@
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,8 +596,32 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,8 +664,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -943,12 +1046,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -969,6 +1101,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1091,6 +1226,39 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2105,6 +2273,55 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219545</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>113925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF7DC1B2-804D-4EC8-AB3F-5FF3C3BDC65A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="614723" y="175636"/>
+          <a:ext cx="7596216" cy="8017502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2400,15 +2617,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B8A6E6-045A-49D4-BCCD-21A85CC47923}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:O11"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.95" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="16" width="8.88671875" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" hidden="1" customWidth="1"/>
@@ -2436,209 +2654,209 @@
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="26">
+      <c r="B4" s="27">
         <v>44624.886805555558</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="33"/>
+      <c r="J4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="26">
+      <c r="B6" s="27">
         <v>44629.909722222219</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="24" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
     <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
@@ -2701,67 +2919,28 @@
     </row>
     <row r="15" spans="1:17" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:17" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="82.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="J8:O9"/>
@@ -2792,10 +2971,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.95" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2815,29 +2994,29 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="47"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="M4" s="47" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="M4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
     </row>
     <row r="5" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="53"/>
     </row>
     <row r="6" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M6" s="2"/>
@@ -2845,27 +3024,27 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="M7" s="47" t="s">
+      <c r="K7" s="44"/>
+      <c r="M7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
     </row>
     <row r="8" spans="2:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="52"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
     </row>
     <row r="9" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4"/>
@@ -2882,21 +3061,21 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
     </row>
     <row r="11" spans="2:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="8"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
     </row>
     <row r="12" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="4"/>
@@ -2910,18 +3089,18 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="8"/>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
     </row>
     <row r="14" spans="2:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M14" s="50"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
     </row>
     <row r="15" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M15" s="2"/>
@@ -2929,34 +3108,34 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="3"/>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="M16" s="47" t="s">
+      <c r="K16" s="44"/>
+      <c r="M16" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="3"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="52"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
     </row>
     <row r="18" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M18" s="2"/>
@@ -2964,18 +3143,18 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M20" s="50"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="53"/>
     </row>
     <row r="21" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M21" s="2"/>
@@ -2983,18 +3162,18 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M22" s="47" t="s">
+      <c r="M22" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
     </row>
     <row r="23" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M23" s="50"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="53"/>
     </row>
     <row r="24" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M24" s="2"/>
@@ -3002,24 +3181,24 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="43"/>
-      <c r="M25" s="47" t="s">
+      <c r="K25" s="44"/>
+      <c r="M25" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
     </row>
     <row r="27" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M27" s="2"/>
@@ -3027,18 +3206,18 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M28" s="47" t="s">
+      <c r="M28" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
     </row>
     <row r="29" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M29" s="50"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M30" s="2"/>
@@ -3050,9 +3229,6 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="M22:P23"/>
@@ -3085,8 +3261,8 @@
   </sheetPr>
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.95" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3106,29 +3282,29 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="47"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="M4" s="47" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="M4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
     </row>
     <row r="5" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="52"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="53"/>
     </row>
     <row r="6" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M6" s="2"/>
@@ -3136,27 +3312,27 @@
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="M7" s="47" t="s">
+      <c r="K7" s="44"/>
+      <c r="M7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
     </row>
     <row r="8" spans="2:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="52"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
     </row>
     <row r="9" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4"/>
@@ -3173,21 +3349,21 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
     </row>
     <row r="11" spans="2:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="8"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
     </row>
     <row r="12" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="4"/>
@@ -3201,18 +3377,18 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="8"/>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
     </row>
     <row r="14" spans="2:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M14" s="50"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="52"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
     </row>
     <row r="15" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M15" s="2"/>
@@ -3220,34 +3396,34 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="3"/>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="M16" s="47" t="s">
+      <c r="K16" s="44"/>
+      <c r="M16" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="3"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="52"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
     </row>
     <row r="18" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M18" s="2"/>
@@ -3255,18 +3431,18 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M20" s="50"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="53"/>
     </row>
     <row r="21" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M21" s="2"/>
@@ -3274,18 +3450,18 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M22" s="47" t="s">
+      <c r="M22" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
     </row>
     <row r="23" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M23" s="50"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="52"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="53"/>
     </row>
     <row r="24" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M24" s="2"/>
@@ -3293,24 +3469,24 @@
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="43"/>
-      <c r="M25" s="47" t="s">
+      <c r="K25" s="44"/>
+      <c r="M25" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
     </row>
     <row r="27" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M27" s="2"/>
@@ -3318,18 +3494,18 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M28" s="47" t="s">
+      <c r="M28" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="50"/>
     </row>
     <row r="29" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M29" s="50"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M30" s="2"/>
@@ -3341,9 +3517,9 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="33" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="33" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="34" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="35" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="M28:P29"/>
@@ -3372,16 +3548,1429 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6A9F1D-16A3-452C-A33C-D9B2234D98A4}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.95" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="26" width="8.88671875" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+    </row>
+    <row r="2" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+    </row>
+    <row r="3" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
+    </row>
+    <row r="4" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
+    </row>
+    <row r="5" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
+    </row>
+    <row r="6" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+    </row>
+    <row r="7" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="59"/>
+    </row>
+    <row r="8" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="62"/>
+    </row>
+    <row r="9" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+    </row>
+    <row r="10" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="59"/>
+    </row>
+    <row r="11" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="62"/>
+    </row>
+    <row r="12" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
+    </row>
+    <row r="13" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="59"/>
+    </row>
+    <row r="14" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="62"/>
+    </row>
+    <row r="15" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="56"/>
+    </row>
+    <row r="16" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="59"/>
+    </row>
+    <row r="17" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="62"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B9:D11"/>
+    <mergeCell ref="B12:D14"/>
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="E6:H8"/>
+    <mergeCell ref="M3:P5"/>
+    <mergeCell ref="M6:P8"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="M1:P2"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="I3:L5"/>
+    <mergeCell ref="I6:L8"/>
+    <mergeCell ref="I9:L11"/>
+    <mergeCell ref="I12:L14"/>
+    <mergeCell ref="I15:L17"/>
+    <mergeCell ref="M9:P11"/>
+    <mergeCell ref="M12:P14"/>
+    <mergeCell ref="M15:P17"/>
+    <mergeCell ref="E9:H11"/>
+    <mergeCell ref="E12:H14"/>
+    <mergeCell ref="E15:H17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3390,7 +4979,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3401,6 +4990,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03260CB-D950-42F1-BF35-EA44CE41CAC2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240BB6EB-017D-4B60-A95E-1BF41A09F37C}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>

--- a/doc/中间文档/uvision.xlsx
+++ b/doc/中间文档/uvision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DaDoeiamiSys\doc\中间文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B21558-7BCE-4713-86B5-7F86CCE39114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD7C3B-96F2-4749-9389-BA91478B0F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,6 +1176,36 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,38 +1224,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1255,9 +1258,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2994,29 +2994,29 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="53"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="M4" s="48" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="M4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="50"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="53"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M6" s="2"/>
@@ -3028,12 +3028,12 @@
         <v>1</v>
       </c>
       <c r="K7" s="44"/>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="50"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
     </row>
     <row r="8" spans="2:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4"/>
@@ -3041,10 +3041,10 @@
       <c r="F8" s="4"/>
       <c r="J8" s="45"/>
       <c r="K8" s="46"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="53"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4"/>
@@ -3061,21 +3061,21 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="M10" s="48" t="s">
+      <c r="M10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="50"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
     </row>
     <row r="11" spans="2:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="8"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="53"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
     </row>
     <row r="12" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="4"/>
@@ -3089,18 +3089,18 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="8"/>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="39"/>
     </row>
     <row r="14" spans="2:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M14" s="51"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="53"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="42"/>
     </row>
     <row r="15" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M15" s="2"/>
@@ -3108,34 +3108,34 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="3"/>
       <c r="J16" s="43" t="s">
         <v>2</v>
       </c>
       <c r="K16" s="44"/>
-      <c r="M16" s="48" t="s">
+      <c r="M16" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39"/>
     </row>
     <row r="17" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="3"/>
       <c r="J17" s="45"/>
       <c r="K17" s="46"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="53"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
     </row>
     <row r="18" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M18" s="2"/>
@@ -3143,18 +3143,18 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M19" s="48" t="s">
+      <c r="M19" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="50"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="39"/>
     </row>
     <row r="20" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M20" s="51"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="53"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="42"/>
     </row>
     <row r="21" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M21" s="2"/>
@@ -3162,18 +3162,18 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M22" s="48" t="s">
+      <c r="M22" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="50"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="39"/>
     </row>
     <row r="23" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M23" s="51"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="53"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="42"/>
     </row>
     <row r="24" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M24" s="2"/>
@@ -3185,20 +3185,20 @@
         <v>3</v>
       </c>
       <c r="K25" s="44"/>
-      <c r="M25" s="48" t="s">
+      <c r="M25" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="50"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="39"/>
     </row>
     <row r="26" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J26" s="45"/>
       <c r="K26" s="46"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="53"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="42"/>
     </row>
     <row r="27" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M27" s="2"/>
@@ -3206,18 +3206,18 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M28" s="48" t="s">
+      <c r="M28" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="50"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="39"/>
     </row>
     <row r="29" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M29" s="51"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="42"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M30" s="2"/>
@@ -3231,6 +3231,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="M19:P20"/>
     <mergeCell ref="M22:P23"/>
     <mergeCell ref="M25:P26"/>
     <mergeCell ref="M28:P29"/>
@@ -3240,11 +3245,6 @@
     <mergeCell ref="M10:P11"/>
     <mergeCell ref="M13:P14"/>
     <mergeCell ref="M16:P17"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="M19:P20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3282,29 +3282,29 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="53"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="M4" s="48" t="s">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="M4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="50"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="53"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M6" s="2"/>
@@ -3316,12 +3316,12 @@
         <v>1</v>
       </c>
       <c r="K7" s="44"/>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="50"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
     </row>
     <row r="8" spans="2:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4"/>
@@ -3329,10 +3329,10 @@
       <c r="F8" s="4"/>
       <c r="J8" s="45"/>
       <c r="K8" s="46"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="53"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4"/>
@@ -3349,21 +3349,21 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="M10" s="48" t="s">
+      <c r="M10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="50"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
     </row>
     <row r="11" spans="2:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="8"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="53"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
     </row>
     <row r="12" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="4"/>
@@ -3377,18 +3377,18 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="8"/>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="39"/>
     </row>
     <row r="14" spans="2:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M14" s="51"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="53"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="42"/>
     </row>
     <row r="15" spans="2:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M15" s="2"/>
@@ -3396,34 +3396,34 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="2:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
       <c r="F16" s="3"/>
       <c r="J16" s="43" t="s">
         <v>3</v>
       </c>
       <c r="K16" s="44"/>
-      <c r="M16" s="48" t="s">
+      <c r="M16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39"/>
     </row>
     <row r="17" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="3"/>
       <c r="J17" s="45"/>
       <c r="K17" s="46"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="53"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
     </row>
     <row r="18" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M18" s="2"/>
@@ -3431,18 +3431,18 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M19" s="48" t="s">
+      <c r="M19" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="50"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="39"/>
     </row>
     <row r="20" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M20" s="51"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="53"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="42"/>
     </row>
     <row r="21" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M21" s="2"/>
@@ -3450,18 +3450,18 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M22" s="48" t="s">
+      <c r="M22" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="50"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="39"/>
     </row>
     <row r="23" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M23" s="51"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="53"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="42"/>
     </row>
     <row r="24" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M24" s="2"/>
@@ -3473,20 +3473,20 @@
         <v>20</v>
       </c>
       <c r="K25" s="44"/>
-      <c r="M25" s="48" t="s">
+      <c r="M25" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="50"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="39"/>
     </row>
     <row r="26" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J26" s="45"/>
       <c r="K26" s="46"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="53"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="42"/>
     </row>
     <row r="27" spans="3:16" ht="14.55" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M27" s="2"/>
@@ -3494,18 +3494,18 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="3:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M28" s="48" t="s">
+      <c r="M28" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="50"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="39"/>
     </row>
     <row r="29" spans="3:16" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M29" s="51"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="42"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="M30" s="2"/>
@@ -3522,6 +3522,12 @@
     <row r="35" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M13:P14"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="M7:P8"/>
+    <mergeCell ref="M10:P11"/>
     <mergeCell ref="M28:P29"/>
     <mergeCell ref="C16:E17"/>
     <mergeCell ref="J16:K17"/>
@@ -3530,12 +3536,6 @@
     <mergeCell ref="M22:P23"/>
     <mergeCell ref="J25:K26"/>
     <mergeCell ref="M25:P26"/>
-    <mergeCell ref="M13:P14"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="M7:P8"/>
-    <mergeCell ref="M10:P11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3551,340 +3551,341 @@
   <dimension ref="A1:AD50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:L8"/>
+      <selection activeCell="I6" sqref="I3:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.95" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="30" width="0" hidden="1" customWidth="1"/>
     <col min="31" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="54" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="54" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
     </row>
     <row r="4" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="60"/>
     </row>
     <row r="5" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
     </row>
     <row r="6" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="54" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="54" t="s">
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
     </row>
     <row r="7" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="60"/>
     </row>
     <row r="8" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
     </row>
     <row r="9" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="54" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="54" t="s">
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
     </row>
     <row r="10" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="59"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="60"/>
     </row>
     <row r="11" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="62"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="63"/>
     </row>
     <row r="12" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="54" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="54" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="57"/>
     </row>
     <row r="13" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="60"/>
     </row>
     <row r="14" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="62"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="63"/>
     </row>
     <row r="15" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="54" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="54" t="s">
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
     </row>
     <row r="16" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="60"/>
     </row>
     <row r="17" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="62"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="63"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -4943,6 +4944,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E12:H14"/>
+    <mergeCell ref="E15:H17"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="E1:H2"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="M1:P2"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="I3:L5"/>
     <mergeCell ref="B9:D11"/>
     <mergeCell ref="B12:D14"/>
     <mergeCell ref="B15:D17"/>
@@ -4951,12 +4960,6 @@
     <mergeCell ref="M6:P8"/>
     <mergeCell ref="B3:D5"/>
     <mergeCell ref="B6:D8"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="E1:H2"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="M1:P2"/>
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="I3:L5"/>
     <mergeCell ref="I6:L8"/>
     <mergeCell ref="I9:L11"/>
     <mergeCell ref="I12:L14"/>
@@ -4965,8 +4968,6 @@
     <mergeCell ref="M12:P14"/>
     <mergeCell ref="M15:P17"/>
     <mergeCell ref="E9:H11"/>
-    <mergeCell ref="E12:H14"/>
-    <mergeCell ref="E15:H17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
